--- a/Companies/Pharmaceuticals & Drugs/Cipla Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
+++ b/Companies/Pharmaceuticals & Drugs/Cipla Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '21</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '21</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '21</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '22</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '21</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '21</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '21</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '21</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>3,173.39</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3,948.33</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3,858.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3,954.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2,882.08</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3,954.79</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3,858.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3,948.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3,173.39</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3954.79</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2882.08</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>3563.482</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>64.53</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>76.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>69.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>59.73</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>76.20999999999999</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>59.73</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>67.3875</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3,233.12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4,017.41</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3,935.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,954.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>2,946.61</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3,954.79</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3,935.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4,017.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3,233.12</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>4017.41</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2946.61</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>3617.392</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>712.98</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>990.38</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,061.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,069.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>369.54</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,069.56</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,061.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>990.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>712.98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1069.56</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>369.54</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>840.8200000000001</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>349.66</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1,101.85</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>643.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>578.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>526.94</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>578.40</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>643.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,101.85</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>349.66</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1101.85</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>349.66</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>640.102</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>175.46</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-599.21</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-176.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-158.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>405.69</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-158.27</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-176.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-599.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>175.46</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>405.69</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-599.21</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-70.622</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>503.04</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>530.27</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>538.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>524.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>429.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>524.86</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>538.20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>530.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>503.04</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>538.2</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>429</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>505.074</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>137.01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>136.98</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>138.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>133.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>116.82</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>133.95</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>138.97</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>136.98</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>137.01</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>138.97</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>116.82</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>132.746</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>842.28</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>848.63</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>885.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>900.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>827.79</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>900.26</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>885.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>848.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>842.28</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>900.26</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>827.79</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>860.89</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>512.69</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,008.51</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>843.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>906.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>270.83</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>906.03</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>843.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,008.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>512.69</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1008.51</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>270.83</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>708.3819999999999</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>49.33</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>197.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>316.31</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>73.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>197.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>79.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>49.33</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>316.31</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>49.33</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>143.206</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>562.02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,088.17</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,041.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>979.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>587.14</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>979.03</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,041.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,088.17</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>562.02</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1088.17</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>562.02</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>851.588</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>5.78</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>7.153999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>553.18</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,080.17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1,033.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>973.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>581.36</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>973.48</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1,033.98</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,080.17</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>553.18</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1080.17</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>553.1799999999999</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>844.434</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>553.18</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,080.17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,033.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>973.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>581.36</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>973.48</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,033.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,080.17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>553.18</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1080.17</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>553.1799999999999</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>844.434</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>139.77</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>288.40</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>251.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>242.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>105.06</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>242.65</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>251.61</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>288.40</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>139.77</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>105.06</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>205.498</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>413.41</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>791.77</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>782.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>730.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>476.30</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>730.83</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>782.37</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>791.77</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>413.41</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>791.77</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>413.41</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>638.936</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>176.66</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>176.66</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>176.66</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>176.66</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>413.41</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>791.77</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>782.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>730.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>652.96</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>730.83</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>782.37</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>791.77</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>413.41</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>791.77</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>413.41</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>674.268</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>161.29</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>161.32</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>161.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>161.36</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>161.36</t>
         </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>161.33</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>161.32</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>161.29</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>161.36</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>161.29</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>161.332</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>8.09</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>8.09</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>8.348000000000001</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>8.09</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>8.09</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>8.348000000000001</v>
       </c>
     </row>
     <row r="32"/>
